--- a/TestData/Common_Operation.xlsx
+++ b/TestData/Common_Operation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://pms-staging.medyaan.com/userlogin</t>
+    <t>https://pms-dev.medyaan.com/userlogin</t>
   </si>
   <si>
     <t>Test@123</t>
@@ -1355,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1601,8 +1601,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
